--- a/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P14NAC59-TORNILLOS CANULADOS 4.0-4.5 ACERO-TITANO 1.xlsx
+++ b/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P14NAC59-TORNILLOS CANULADOS 4.0-4.5 ACERO-TITANO 1.xlsx
@@ -1,35 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931DFA3C-495D-478B-BF44-E02F77BCCF39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCFF61B-CB0F-4D4B-A534-D74DB6A47E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JAIRO" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -720,8 +709,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="167" formatCode="[$-C0A]d\ &quot;de&quot;\ mmmm\ &quot;de&quot;\ yyyy;@"/>
@@ -1156,10 +1145,10 @@
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1488,9 +1477,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1528,7 +1517,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1634,7 +1623,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1776,7 +1765,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1786,8 +1775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.42578125" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1870,7 +1859,7 @@
       <c r="B7" s="17"/>
       <c r="C7" s="59">
         <f ca="1">NOW()</f>
-        <v>45370.969172916666</v>
+        <v>45397.75545138889</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>20</v>
@@ -3054,7 +3043,7 @@
         <v>175</v>
       </c>
       <c r="D73" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E73" s="73"/>
       <c r="F73" s="24"/>
@@ -3074,7 +3063,7 @@
         <v>176</v>
       </c>
       <c r="D74" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E74" s="73"/>
       <c r="F74" s="24"/>
@@ -3089,7 +3078,7 @@
       <c r="C75" s="72"/>
       <c r="D75" s="5">
         <f>SUM(D56:D74)</f>
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E75" s="73"/>
       <c r="F75" s="24"/>
@@ -3128,7 +3117,7 @@
         <v>46</v>
       </c>
       <c r="D77" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E77" s="73"/>
       <c r="F77" s="24">
@@ -3136,7 +3125,7 @@
       </c>
       <c r="G77" s="24">
         <f t="shared" si="1"/>
-        <v>240</v>
+        <v>144</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3145,7 +3134,7 @@
       <c r="C78" s="37"/>
       <c r="D78" s="5">
         <f>SUM(D76:D77)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E78" s="73"/>
       <c r="F78" s="24"/>
@@ -3162,7 +3151,7 @@
       </c>
       <c r="G79" s="78">
         <f>SUM(G24:G77)</f>
-        <v>3554.88</v>
+        <v>3458.88</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3176,7 +3165,7 @@
       </c>
       <c r="G80" s="79">
         <f>+G79*0.12</f>
-        <v>426.5856</v>
+        <v>415.06560000000002</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3190,7 +3179,7 @@
       </c>
       <c r="G81" s="79">
         <f>+G79+G80</f>
-        <v>3981.4656</v>
+        <v>3873.9456</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
